--- a/Labs/Independent Project /Green and Jutfelt 2014 raw data.xlsx
+++ b/Labs/Independent Project /Green and Jutfelt 2014 raw data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ojaswiuprety/Desktop/EBIO4420/CompBioLabsAndHomework/Labs/Independent Project /"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651136F1-598D-5145-90D5-04E4C6227338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="0" windowWidth="20340" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="5260" yWindow="460" windowWidth="23500" windowHeight="14300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -225,11 +231,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +518,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -836,14 +850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="8" customWidth="1"/>
@@ -2854,7 +2868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="34">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="17">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
@@ -2882,7 +2896,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="17">
       <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2910,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="17">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="17">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
@@ -2924,7 +2938,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="17">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
@@ -2938,7 +2952,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="17">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
@@ -2952,7 +2966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="17">
       <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2980,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="17">
       <c r="A91" s="2" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +2994,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="17">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +3008,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="17">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="17">
       <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3036,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="17">
       <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="17">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3064,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="17">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -3064,7 +3078,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="17">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="17">
       <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
@@ -3092,7 +3106,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="17">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
@@ -3106,7 +3120,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="17">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="17">
       <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
@@ -3134,7 +3148,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="17">
       <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3162,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="17">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
@@ -3162,7 +3176,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="17">
       <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="17">
       <c r="A106" s="2" t="s">
         <v>1</v>
       </c>
@@ -3190,7 +3204,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="17">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
@@ -3204,7 +3218,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="17">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" ht="17">
       <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +3246,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="17">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -3246,7 +3260,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="17">
       <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="17">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="17">
       <c r="A113" s="2" t="s">
         <v>1</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="17">
       <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="17">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="17">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3344,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="17">
       <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +3358,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="17">
       <c r="A118" s="2" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3372,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="17">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="17">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +3400,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="17">
       <c r="A121" s="2" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" ht="17">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3428,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="17">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +3442,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="17">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="17">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
@@ -3456,7 +3470,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="17">
       <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
@@ -3470,7 +3484,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="17">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
@@ -3484,7 +3498,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" ht="17">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="17">
       <c r="A129" s="2" t="s">
         <v>1</v>
       </c>
@@ -3512,7 +3526,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" ht="17">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" ht="17">
       <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
@@ -3540,7 +3554,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="17">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
@@ -3554,7 +3568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="17">
       <c r="A133" s="2" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3582,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="17">
       <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="17">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="17">
       <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +3624,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="17">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
@@ -3624,7 +3638,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="17">
       <c r="A138" s="2" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="17">
       <c r="A139" s="2" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3666,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="17">
       <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +3680,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="17">
       <c r="A141" s="2" t="s">
         <v>1</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="17">
       <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" ht="17">
       <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="17">
       <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
@@ -3722,7 +3736,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="17">
       <c r="A145" s="2" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +3750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="17">
       <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3764,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="17">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -3764,7 +3778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="17">
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="17">
       <c r="A149" s="2" t="s">
         <v>1</v>
       </c>
@@ -3792,7 +3806,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="17">
       <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
@@ -3806,7 +3820,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="17">
       <c r="A151" s="2" t="s">
         <v>1</v>
       </c>
@@ -3820,7 +3834,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="17">
       <c r="A152" s="2" t="s">
         <v>1</v>
       </c>
@@ -3834,7 +3848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="17">
       <c r="A153" s="2" t="s">
         <v>1</v>
       </c>
@@ -3848,7 +3862,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="17">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3862,7 +3876,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" ht="17">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" ht="17">
       <c r="A156" s="2" t="s">
         <v>1</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" ht="17">
       <c r="A157" s="2" t="s">
         <v>1</v>
       </c>
@@ -3904,7 +3918,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" ht="17">
       <c r="A158" s="2" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +3932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="17">
       <c r="A159" s="2" t="s">
         <v>1</v>
       </c>
@@ -3932,7 +3946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" ht="17">
       <c r="A160" s="2" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +3960,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" ht="17">
       <c r="A161" s="2" t="s">
         <v>1</v>
       </c>
@@ -3960,7 +3974,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" ht="17">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
@@ -3974,7 +3988,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" ht="17">
       <c r="A163" s="2" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +4002,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" ht="17">
       <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="17">
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
@@ -4016,7 +4030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" ht="17">
       <c r="A166" s="2" t="s">
         <v>1</v>
       </c>
@@ -4030,7 +4044,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" ht="17">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
@@ -4044,7 +4058,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="17">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="17">
       <c r="A169" s="2" t="s">
         <v>1</v>
       </c>
@@ -4072,7 +4086,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" ht="17">
       <c r="A170" s="2" t="s">
         <v>1</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="17">
       <c r="A171" s="2" t="s">
         <v>1</v>
       </c>
@@ -4100,7 +4114,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" ht="17">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" ht="17">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -4128,7 +4142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" ht="17">
       <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +4156,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" ht="17">
       <c r="A175" s="2" t="s">
         <v>1</v>
       </c>
@@ -4156,7 +4170,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" ht="17">
       <c r="A176" s="2" t="s">
         <v>1</v>
       </c>
@@ -4170,7 +4184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" ht="17">
       <c r="A177" s="2" t="s">
         <v>1</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" ht="17">
       <c r="A178" s="2" t="s">
         <v>1</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" ht="17">
       <c r="A179" s="2" t="s">
         <v>1</v>
       </c>
@@ -4212,7 +4226,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" ht="17">
       <c r="A180" s="2" t="s">
         <v>1</v>
       </c>
@@ -4226,7 +4240,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="17">
       <c r="A181" s="2" t="s">
         <v>1</v>
       </c>
@@ -4240,7 +4254,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" ht="17">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
@@ -4254,7 +4268,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" ht="17">
       <c r="A183" s="2" t="s">
         <v>1</v>
       </c>
@@ -4268,7 +4282,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="17">
       <c r="A184" s="2" t="s">
         <v>1</v>
       </c>
@@ -4282,7 +4296,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" ht="17">
       <c r="A185" s="2" t="s">
         <v>1</v>
       </c>
@@ -4296,7 +4310,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" ht="17">
       <c r="A186" s="2" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4324,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" ht="17">
       <c r="A187" s="2" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" ht="17">
       <c r="A188" s="2" t="s">
         <v>1</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" ht="17">
       <c r="A189" s="2" t="s">
         <v>1</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" ht="17">
       <c r="A190" s="2" t="s">
         <v>1</v>
       </c>
@@ -4366,7 +4380,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" ht="17">
       <c r="A191" s="2" t="s">
         <v>1</v>
       </c>
@@ -4380,7 +4394,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" ht="17">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -4394,7 +4408,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" ht="17">
       <c r="A193" s="2" t="s">
         <v>1</v>
       </c>
@@ -4408,7 +4422,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" ht="17">
       <c r="A194" s="2" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" ht="17">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -4436,7 +4450,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" ht="17">
       <c r="A196" s="2" t="s">
         <v>1</v>
       </c>
@@ -4450,7 +4464,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" ht="17">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
@@ -4464,7 +4478,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" ht="17">
       <c r="A198" s="2" t="s">
         <v>1</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" ht="17">
       <c r="A199" s="2" t="s">
         <v>1</v>
       </c>
@@ -4492,7 +4506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" ht="17">
       <c r="A200" s="2" t="s">
         <v>1</v>
       </c>
@@ -4506,7 +4520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" ht="17">
       <c r="A201" s="2" t="s">
         <v>1</v>
       </c>
@@ -4520,7 +4534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" ht="17">
       <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
@@ -4534,7 +4548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" ht="17">
       <c r="A203" s="2" t="s">
         <v>1</v>
       </c>
@@ -4548,7 +4562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" ht="17">
       <c r="A204" s="2" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4576,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" ht="17">
       <c r="A205" s="2" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4590,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" ht="17">
       <c r="A206" s="2" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" ht="17">
       <c r="A207" s="2" t="s">
         <v>1</v>
       </c>
@@ -4604,7 +4618,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" ht="17">
       <c r="A208" s="2" t="s">
         <v>1</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="17">
       <c r="A209" s="2" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4646,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" ht="17">
       <c r="A210" s="2" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4660,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" ht="17">
       <c r="A211" s="2" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4674,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" ht="17">
       <c r="A212" s="2" t="s">
         <v>1</v>
       </c>
@@ -4674,7 +4688,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" ht="17">
       <c r="A213" s="2" t="s">
         <v>1</v>
       </c>
@@ -4688,7 +4702,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="17">
       <c r="A214" s="2" t="s">
         <v>1</v>
       </c>
@@ -4702,7 +4716,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" ht="17">
       <c r="A215" s="2" t="s">
         <v>1</v>
       </c>
@@ -4716,7 +4730,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" ht="17">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" ht="17">
       <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
@@ -4744,7 +4758,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" ht="17">
       <c r="A218" s="2" t="s">
         <v>1</v>
       </c>
@@ -4758,7 +4772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" ht="17">
       <c r="A219" s="2" t="s">
         <v>1</v>
       </c>
@@ -4772,7 +4786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" ht="17">
       <c r="A220" s="2" t="s">
         <v>1</v>
       </c>
@@ -4786,7 +4800,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" ht="17">
       <c r="A221" s="2" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4814,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" ht="17">
       <c r="A222" s="2" t="s">
         <v>1</v>
       </c>
@@ -4814,7 +4828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" ht="17">
       <c r="A223" s="2" t="s">
         <v>1</v>
       </c>
@@ -4828,7 +4842,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" ht="17">
       <c r="A224" s="2" t="s">
         <v>1</v>
       </c>
@@ -4842,7 +4856,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" ht="17">
       <c r="A225" s="2" t="s">
         <v>1</v>
       </c>
@@ -4856,7 +4870,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" ht="17">
       <c r="A226" s="2" t="s">
         <v>1</v>
       </c>
@@ -4870,7 +4884,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" ht="17">
       <c r="A227" s="2" t="s">
         <v>1</v>
       </c>
@@ -4884,7 +4898,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" ht="17">
       <c r="A228" s="2" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" ht="17">
       <c r="A229" s="2" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4926,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" ht="17">
       <c r="A230" s="2" t="s">
         <v>1</v>
       </c>
@@ -4926,7 +4940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" ht="17">
       <c r="A231" s="2" t="s">
         <v>1</v>
       </c>
@@ -4940,7 +4954,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" ht="17">
       <c r="A232" s="2" t="s">
         <v>1</v>
       </c>
@@ -4954,7 +4968,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="17">
       <c r="A233" s="2" t="s">
         <v>1</v>
       </c>
@@ -4968,7 +4982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" ht="17">
       <c r="A234" s="2" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +4996,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" ht="17">
       <c r="A235" s="2" t="s">
         <v>2</v>
       </c>
@@ -4996,7 +5010,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" ht="17">
       <c r="A236" s="2" t="s">
         <v>2</v>
       </c>
@@ -5010,7 +5024,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" ht="17">
       <c r="A237" s="2" t="s">
         <v>2</v>
       </c>
@@ -5024,7 +5038,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" ht="17">
       <c r="A238" s="2" t="s">
         <v>2</v>
       </c>
@@ -5038,7 +5052,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="17">
       <c r="A239" s="2" t="s">
         <v>2</v>
       </c>
@@ -5052,7 +5066,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="17">
       <c r="A240" s="2" t="s">
         <v>2</v>
       </c>
@@ -5066,7 +5080,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="17">
       <c r="A241" s="2" t="s">
         <v>2</v>
       </c>
@@ -5080,7 +5094,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="17">
       <c r="A242" s="2" t="s">
         <v>2</v>
       </c>
@@ -5094,7 +5108,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" ht="17">
       <c r="A243" s="2" t="s">
         <v>2</v>
       </c>
@@ -5108,7 +5122,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" ht="17">
       <c r="A244" s="2" t="s">
         <v>2</v>
       </c>
@@ -5122,7 +5136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" ht="17">
       <c r="A245" s="2" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5150,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" ht="17">
       <c r="A246" s="2" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5164,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" ht="17">
       <c r="A247" s="2" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" ht="17">
       <c r="A248" s="2" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +5192,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" ht="17">
       <c r="A249" s="2" t="s">
         <v>2</v>
       </c>
@@ -5192,7 +5206,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" ht="17">
       <c r="A250" s="2" t="s">
         <v>2</v>
       </c>
@@ -5206,7 +5220,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" ht="17">
       <c r="A251" s="2" t="s">
         <v>2</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" ht="17">
       <c r="A252" s="2" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" ht="17">
       <c r="A253" s="2" t="s">
         <v>2</v>
       </c>
@@ -5248,7 +5262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" ht="17">
       <c r="A254" s="2" t="s">
         <v>2</v>
       </c>
@@ -5262,7 +5276,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" ht="17">
       <c r="A255" s="2" t="s">
         <v>2</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" ht="17">
       <c r="A256" s="2" t="s">
         <v>2</v>
       </c>
@@ -5290,7 +5304,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" ht="17">
       <c r="A257" s="2" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5318,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" ht="17">
       <c r="A258" s="2" t="s">
         <v>2</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="17">
       <c r="A259" s="2" t="s">
         <v>2</v>
       </c>
@@ -5332,7 +5346,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="17">
       <c r="A260" s="2" t="s">
         <v>2</v>
       </c>
@@ -5346,7 +5360,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" ht="17">
       <c r="A261" s="2" t="s">
         <v>2</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="17">
       <c r="A262" s="2" t="s">
         <v>2</v>
       </c>
@@ -5374,7 +5388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" ht="17">
       <c r="A263" s="2" t="s">
         <v>2</v>
       </c>
@@ -5388,7 +5402,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" ht="17">
       <c r="A264" s="2" t="s">
         <v>2</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" ht="17">
       <c r="A265" s="2" t="s">
         <v>2</v>
       </c>
@@ -5416,7 +5430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" ht="17">
       <c r="A266" s="2" t="s">
         <v>2</v>
       </c>
@@ -5430,7 +5444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="17">
       <c r="A267" s="2" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" ht="17">
       <c r="A268" s="2" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" ht="17">
       <c r="A269" s="2" t="s">
         <v>2</v>
       </c>
@@ -5472,7 +5486,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="17">
       <c r="A270" s="2" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5500,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="17">
       <c r="A271" s="2" t="s">
         <v>2</v>
       </c>
@@ -5500,7 +5514,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" ht="17">
       <c r="A272" s="2" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5528,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="17">
       <c r="A273" s="2" t="s">
         <v>2</v>
       </c>
@@ -5528,7 +5542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" ht="17">
       <c r="A274" s="2" t="s">
         <v>2</v>
       </c>
@@ -5542,7 +5556,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" ht="17">
       <c r="A275" s="2" t="s">
         <v>2</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" ht="17">
       <c r="A276" s="2" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5584,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" ht="17">
       <c r="A277" s="2" t="s">
         <v>2</v>
       </c>
@@ -5584,7 +5598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" ht="17">
       <c r="A278" s="2" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" ht="17">
       <c r="A279" s="2" t="s">
         <v>2</v>
       </c>
@@ -5612,7 +5626,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" ht="17">
       <c r="A280" s="2" t="s">
         <v>2</v>
       </c>
@@ -5626,7 +5640,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" ht="17">
       <c r="A281" s="2" t="s">
         <v>2</v>
       </c>
@@ -5640,7 +5654,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" ht="17">
       <c r="A282" s="2" t="s">
         <v>2</v>
       </c>
@@ -5654,7 +5668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" ht="17">
       <c r="A283" s="2" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" ht="17">
       <c r="A284" s="2" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5696,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" ht="17">
       <c r="A285" s="2" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5710,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" ht="17">
       <c r="A286" s="2" t="s">
         <v>2</v>
       </c>
@@ -5710,7 +5724,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" ht="17">
       <c r="A287" s="2" t="s">
         <v>2</v>
       </c>
@@ -5724,7 +5738,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" ht="17">
       <c r="A288" s="2" t="s">
         <v>2</v>
       </c>
@@ -5738,7 +5752,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" ht="17">
       <c r="A289" s="2" t="s">
         <v>2</v>
       </c>
@@ -5752,7 +5766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" ht="17">
       <c r="A290" s="2" t="s">
         <v>2</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" ht="17">
       <c r="A291" s="2" t="s">
         <v>2</v>
       </c>
@@ -5780,7 +5794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" ht="17">
       <c r="A292" s="2" t="s">
         <v>2</v>
       </c>
@@ -5794,7 +5808,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" ht="17">
       <c r="A293" s="2" t="s">
         <v>2</v>
       </c>
@@ -5808,7 +5822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" ht="17">
       <c r="A294" s="2" t="s">
         <v>2</v>
       </c>
@@ -5822,7 +5836,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" ht="17">
       <c r="A295" s="2" t="s">
         <v>2</v>
       </c>
@@ -5836,7 +5850,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" ht="17">
       <c r="A296" s="2" t="s">
         <v>2</v>
       </c>
@@ -5850,7 +5864,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" ht="17">
       <c r="A297" s="2" t="s">
         <v>2</v>
       </c>
@@ -5864,7 +5878,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" ht="17">
       <c r="A298" s="2" t="s">
         <v>2</v>
       </c>
@@ -5878,7 +5892,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" ht="17">
       <c r="A299" s="2" t="s">
         <v>2</v>
       </c>
@@ -5892,7 +5906,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" ht="17">
       <c r="A300" s="2" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" ht="17">
       <c r="A301" s="2" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" ht="17">
       <c r="A302" s="2" t="s">
         <v>2</v>
       </c>
@@ -5934,7 +5948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" ht="17">
       <c r="A303" s="2" t="s">
         <v>2</v>
       </c>
@@ -5948,7 +5962,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="17">
       <c r="A304" s="2" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5976,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" ht="17">
       <c r="A305" s="2" t="s">
         <v>2</v>
       </c>
@@ -5976,7 +5990,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" ht="17">
       <c r="A306" s="2" t="s">
         <v>2</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" ht="17">
       <c r="A307" s="2" t="s">
         <v>2</v>
       </c>
@@ -6004,7 +6018,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" ht="17">
       <c r="A308" s="2" t="s">
         <v>2</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" ht="17">
       <c r="A309" s="2" t="s">
         <v>2</v>
       </c>
@@ -6032,7 +6046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" ht="17">
       <c r="A310" s="2" t="s">
         <v>2</v>
       </c>
@@ -6046,7 +6060,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" ht="17">
       <c r="A311" s="2" t="s">
         <v>2</v>
       </c>
@@ -6060,7 +6074,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" ht="17">
       <c r="A312" s="2" t="s">
         <v>2</v>
       </c>
@@ -6074,7 +6088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" ht="17">
       <c r="A313" s="2" t="s">
         <v>2</v>
       </c>
@@ -6088,7 +6102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" ht="17">
       <c r="A314" s="2" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6116,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" ht="17">
       <c r="A315" s="2" t="s">
         <v>2</v>
       </c>
@@ -6116,7 +6130,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" ht="17">
       <c r="A316" s="2" t="s">
         <v>2</v>
       </c>
@@ -6130,7 +6144,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" ht="17">
       <c r="A317" s="2" t="s">
         <v>2</v>
       </c>
@@ -6144,7 +6158,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" ht="17">
       <c r="A318" s="2" t="s">
         <v>2</v>
       </c>
@@ -6158,7 +6172,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" ht="17">
       <c r="A319" s="2" t="s">
         <v>2</v>
       </c>
@@ -6172,7 +6186,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" ht="17">
       <c r="A320" s="2" t="s">
         <v>2</v>
       </c>
@@ -6186,7 +6200,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" ht="17">
       <c r="A321" s="2" t="s">
         <v>2</v>
       </c>
@@ -6200,7 +6214,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" ht="17">
       <c r="A322" s="2" t="s">
         <v>2</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" ht="17">
       <c r="A323" s="2" t="s">
         <v>2</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" ht="17">
       <c r="A324" s="2" t="s">
         <v>2</v>
       </c>
@@ -6242,7 +6256,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" ht="17">
       <c r="A325" s="2" t="s">
         <v>2</v>
       </c>
@@ -6256,7 +6270,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" ht="17">
       <c r="A326" s="2" t="s">
         <v>2</v>
       </c>
@@ -6270,7 +6284,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" ht="17">
       <c r="A327" s="2" t="s">
         <v>2</v>
       </c>
@@ -6284,7 +6298,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" ht="17">
       <c r="A328" s="2" t="s">
         <v>2</v>
       </c>
@@ -6298,7 +6312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="17">
       <c r="A329" s="2" t="s">
         <v>2</v>
       </c>
@@ -6312,7 +6326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" ht="17">
       <c r="A330" s="2" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" ht="17">
       <c r="A331" s="2" t="s">
         <v>2</v>
       </c>
@@ -6340,7 +6354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" ht="17">
       <c r="A332" s="2" t="s">
         <v>2</v>
       </c>
@@ -6354,7 +6368,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" ht="17">
       <c r="A333" s="2" t="s">
         <v>2</v>
       </c>
@@ -6368,7 +6382,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" ht="17">
       <c r="A334" s="2" t="s">
         <v>2</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" ht="17">
       <c r="A335" s="2" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6410,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" ht="17">
       <c r="A336" s="2" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6424,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" ht="17">
       <c r="A337" s="2" t="s">
         <v>2</v>
       </c>
@@ -6424,7 +6438,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" ht="17">
       <c r="A338" s="2" t="s">
         <v>2</v>
       </c>
@@ -6438,7 +6452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" ht="17">
       <c r="A339" s="2" t="s">
         <v>2</v>
       </c>
@@ -6452,7 +6466,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" ht="17">
       <c r="A340" s="2" t="s">
         <v>2</v>
       </c>
@@ -6466,7 +6480,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" ht="17">
       <c r="A341" s="2" t="s">
         <v>2</v>
       </c>
@@ -6480,7 +6494,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" ht="17">
       <c r="A342" s="2" t="s">
         <v>2</v>
       </c>
@@ -6494,7 +6508,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" ht="17">
       <c r="A343" s="2" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" ht="17">
       <c r="A344" s="2" t="s">
         <v>2</v>
       </c>
@@ -6522,7 +6536,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" ht="17">
       <c r="A345" s="2" t="s">
         <v>2</v>
       </c>
@@ -6536,7 +6550,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" ht="17">
       <c r="A346" s="2" t="s">
         <v>2</v>
       </c>
@@ -6550,7 +6564,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" ht="17">
       <c r="A347" s="2" t="s">
         <v>2</v>
       </c>
@@ -6564,7 +6578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" ht="17">
       <c r="A348" s="2" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6592,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" ht="17">
       <c r="A349" s="2" t="s">
         <v>2</v>
       </c>
@@ -6592,7 +6606,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" ht="17">
       <c r="A350" s="2" t="s">
         <v>2</v>
       </c>
@@ -6606,7 +6620,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" ht="17">
       <c r="A351" s="2" t="s">
         <v>2</v>
       </c>
@@ -6620,7 +6634,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" ht="17">
       <c r="A352" s="2" t="s">
         <v>2</v>
       </c>
@@ -6634,7 +6648,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" ht="17">
       <c r="A353" s="2" t="s">
         <v>2</v>
       </c>
@@ -6648,7 +6662,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" ht="17">
       <c r="A354" s="2" t="s">
         <v>2</v>
       </c>
@@ -6662,7 +6676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" ht="17">
       <c r="A355" s="2" t="s">
         <v>2</v>
       </c>
@@ -6676,7 +6690,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" ht="17">
       <c r="A356" s="2" t="s">
         <v>2</v>
       </c>
@@ -6690,7 +6704,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" ht="17">
       <c r="A357" s="2" t="s">
         <v>2</v>
       </c>
@@ -6704,7 +6718,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" ht="17">
       <c r="A358" s="2" t="s">
         <v>2</v>
       </c>
@@ -6718,7 +6732,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" ht="17">
       <c r="A359" s="2" t="s">
         <v>2</v>
       </c>
@@ -6732,7 +6746,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" ht="17">
       <c r="A360" s="2" t="s">
         <v>2</v>
       </c>
@@ -6746,7 +6760,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" ht="17">
       <c r="A361" s="2" t="s">
         <v>2</v>
       </c>
@@ -6760,7 +6774,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" ht="17">
       <c r="A362" s="2" t="s">
         <v>2</v>
       </c>
@@ -6774,7 +6788,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" ht="17">
       <c r="A363" s="2" t="s">
         <v>2</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" ht="17">
       <c r="A364" s="2" t="s">
         <v>2</v>
       </c>
@@ -6802,7 +6816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" ht="17">
       <c r="A365" s="2" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +6830,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" ht="17">
       <c r="A366" s="2" t="s">
         <v>2</v>
       </c>
@@ -6830,7 +6844,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" ht="17">
       <c r="A367" s="2" t="s">
         <v>2</v>
       </c>
@@ -6844,7 +6858,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" ht="17">
       <c r="A368" s="2" t="s">
         <v>2</v>
       </c>
@@ -6858,7 +6872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" ht="17">
       <c r="A369" s="2" t="s">
         <v>2</v>
       </c>
@@ -6872,7 +6886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" ht="17">
       <c r="A370" s="2" t="s">
         <v>2</v>
       </c>
@@ -6886,7 +6900,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" ht="17">
       <c r="A371" s="2" t="s">
         <v>2</v>
       </c>
@@ -6900,7 +6914,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" ht="17">
       <c r="A372" s="2" t="s">
         <v>2</v>
       </c>
@@ -6914,7 +6928,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" ht="17">
       <c r="A373" s="2" t="s">
         <v>2</v>
       </c>
@@ -6928,7 +6942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" ht="17">
       <c r="A374" s="2" t="s">
         <v>2</v>
       </c>
@@ -6942,7 +6956,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" ht="17">
       <c r="A375" s="2" t="s">
         <v>2</v>
       </c>
@@ -6956,7 +6970,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" ht="17">
       <c r="A376" s="2" t="s">
         <v>2</v>
       </c>
@@ -6970,7 +6984,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" ht="17">
       <c r="A377" s="2" t="s">
         <v>2</v>
       </c>
@@ -6984,7 +6998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" ht="17">
       <c r="A378" s="2" t="s">
         <v>2</v>
       </c>
@@ -6998,7 +7012,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" ht="17">
       <c r="A379" s="2" t="s">
         <v>2</v>
       </c>
@@ -7012,7 +7026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" ht="17">
       <c r="A380" s="2" t="s">
         <v>2</v>
       </c>
@@ -7026,7 +7040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" ht="17">
       <c r="A381" s="2" t="s">
         <v>2</v>
       </c>
@@ -7040,7 +7054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" ht="17">
       <c r="A382" s="2" t="s">
         <v>2</v>
       </c>
@@ -7054,7 +7068,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" ht="17">
       <c r="A383" s="2" t="s">
         <v>2</v>
       </c>
@@ -7068,7 +7082,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" ht="17">
       <c r="A385" s="3" t="s">
         <v>55</v>
       </c>
